--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">skala1item1,skala1item2,skala1item3</t>
+    <t xml:space="preserve">skala1_item1,skala1_item2,skala1_item3</t>
   </si>
   <si>
     <t xml:space="preserve">skalenwert_fake</t>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">varName</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">skala1_item1,skala1_item2,skala1_item3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skalenwert_fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -396,18 +390,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">varName</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t xml:space="preserve">skala1_item1,skala1_item2,skala1_item3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_1,pv_2,pv_3,pv_4,pv_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvkat_1,pvkat_2,pvkat_3,pvkat_4,pvkat_5</t>
   </si>
 </sst>
 </file>
@@ -390,6 +402,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -369,10 +369,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -369,10 +369,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">varName</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Items_der_Skala</t>
   </si>
   <si>
+    <t xml:space="preserve">Imputationen</t>
+  </si>
+  <si>
     <t xml:space="preserve">skala1</t>
   </si>
   <si>
@@ -33,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">skala1_item1,skala1_item2,skala1_item3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">pv_pooled</t>
@@ -389,41 +395,53 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">varName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle</t>
   </si>
   <si>
     <t xml:space="preserve">Anzahl_valider_Werte</t>
@@ -395,53 +392,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/example_scaleInfo.xlsx
+++ b/inst/extdata/example_scaleInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">varName</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">pv_1,pv_2,pv_3,pv_4,pv_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_pooled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvord_1,pvord_2,pvord_3,pvord_4,pvord_5</t>
   </si>
   <si>
     <t xml:space="preserve">pvkat_pooled</t>
@@ -435,6 +441,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
